--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>225799.8934474899</v>
+        <v>221157.0058037536</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7724244.484134701</v>
+        <v>7708748.508663159</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4556490.932337726</v>
+        <v>4563619.081054636</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.262548922260277</v>
+        <v>20.54712558012635</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>23.32779925082465</v>
       </c>
       <c r="D2" t="n">
-        <v>2.873653090726851</v>
+        <v>23.32779925082465</v>
       </c>
       <c r="E2" t="n">
-        <v>3.262548922260277</v>
+        <v>23.32779925082465</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23.32779925082465</v>
       </c>
       <c r="D3" t="n">
-        <v>2.677227098474517</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>17.39088632218126</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>23.32779925082465</v>
       </c>
     </row>
     <row r="4">
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.40220350370247</v>
+        <v>19.70124719403653</v>
       </c>
       <c r="S4" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>12.76456957586252</v>
       </c>
     </row>
     <row r="5">
@@ -983,67 +983,67 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="F6" t="n">
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>30.58073358141466</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>30.58073358141467</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>41.31500304752735</v>
+        <v>38.83972215570805</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>16.07267624245948</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>52.97887332096176</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>67.2731477941423</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>67.2731477941423</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>67.2731477941423</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>49.61559682145243</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E9" t="n">
-        <v>67.2731477941423</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>30.58073358141467</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>26.08039489314852</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>67.2731477941423</v>
+        <v>38.83972215570805</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>248.9395529139703</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>82.55</v>
       </c>
       <c r="G12" t="n">
-        <v>83.52738940623966</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
         <v>31.62322353306971</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>33.00195645521281</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>40.81179447522066</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>382.2628790681007</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>167.5747902561366</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306968</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>108.2212075726265</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>40.81179447522065</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>30.96909392279474</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>59.41322069155731</v>
       </c>
     </row>
     <row r="18">
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>133.62125607659</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>34.51516921304759</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>47.98161195441715</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>65.45709821928079</v>
       </c>
     </row>
     <row r="21">
@@ -2244,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>40.81179447522065</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>69.34909421325258</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>206.8305688651929</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>176.4375280498058</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>158.3404166400546</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>5.033780699103743</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -2569,7 +2569,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>65.45709821928062</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>115.0329165038724</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.45564828228861</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>46.18189662745586</v>
       </c>
       <c r="U28" t="n">
         <v>275.6027656317444</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>156.7012890994293</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2803,10 +2803,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>294.4961300664001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>146.1374606365701</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>143.911080996891</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>131.252458522375</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>51.20625403682493</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>5.033780699103743</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>300.6093084270142</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3283,7 +3283,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>194.2708403665214</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>7.984472406171509</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>240.4582285592074</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>321.9370827829819</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3556,7 +3556,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>109.5540470185018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,13 +3666,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>141.0124762330261</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>130.2917056056572</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>174.2784595247126</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>192.3085274337922</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>131.884229727403</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>114.1797502495162</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>249.9293611790116</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>193.6594973377259</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>5.033780699103764</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>114.1797502495162</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.459187765282972</v>
+        <v>72.55652470014066</v>
       </c>
       <c r="C2" t="n">
-        <v>6.459187765282972</v>
+        <v>48.9930911134491</v>
       </c>
       <c r="D2" t="n">
-        <v>3.55650787565989</v>
+        <v>25.42965752675753</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.866223940065972</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.866223940065972</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.866223940065972</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.866223940065972</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2610039137808222</v>
+        <v>4.300780394746007</v>
       </c>
       <c r="J2" t="n">
-        <v>1.160310701713751</v>
+        <v>10.55978981922388</v>
       </c>
       <c r="K2" t="n">
-        <v>2.508138455589632</v>
+        <v>19.94042246570088</v>
       </c>
       <c r="L2" t="n">
-        <v>4.180237967355347</v>
+        <v>31.57792675593542</v>
       </c>
       <c r="M2" t="n">
-        <v>6.040770853278587</v>
+        <v>44.52689258583986</v>
       </c>
       <c r="N2" t="n">
-        <v>7.931409106423311</v>
+        <v>57.68538622059912</v>
       </c>
       <c r="O2" t="n">
-        <v>9.716685196678942</v>
+        <v>70.11057862895267</v>
       </c>
       <c r="P2" t="n">
-        <v>11.24037703589</v>
+        <v>80.7151928824963</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.38460615143388</v>
+        <v>88.67881654691062</v>
       </c>
       <c r="R2" t="n">
-        <v>13.05019568904111</v>
+        <v>93.31119700329859</v>
       </c>
       <c r="S2" t="n">
-        <v>13.05019568904111</v>
+        <v>93.31119700329859</v>
       </c>
       <c r="T2" t="n">
-        <v>13.05019568904111</v>
+        <v>93.31119700329859</v>
       </c>
       <c r="U2" t="n">
-        <v>13.05019568904111</v>
+        <v>93.31119700329859</v>
       </c>
       <c r="V2" t="n">
-        <v>13.05019568904111</v>
+        <v>93.31119700329859</v>
       </c>
       <c r="W2" t="n">
-        <v>13.05019568904111</v>
+        <v>93.31119700329859</v>
       </c>
       <c r="X2" t="n">
-        <v>13.05019568904111</v>
+        <v>93.31119700329859</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.75469172716204</v>
+        <v>93.31119700329859</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.965273710219728</v>
+        <v>42.99620936734466</v>
       </c>
       <c r="C3" t="n">
-        <v>2.965273710219728</v>
+        <v>19.4327757806531</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2610039137808222</v>
+        <v>19.4327757806531</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2610039137808222</v>
+        <v>19.4327757806531</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2610039137808222</v>
+        <v>19.4327757806531</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2610039137808222</v>
+        <v>19.4327757806531</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.866223940065972</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4561956203818616</v>
+        <v>3.2247222274012</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9918165824064465</v>
+        <v>6.952545362113067</v>
       </c>
       <c r="K3" t="n">
-        <v>1.907278118958099</v>
+        <v>13.32398885826862</v>
       </c>
       <c r="L3" t="n">
-        <v>3.138229129822361</v>
+        <v>21.89118092381391</v>
       </c>
       <c r="M3" t="n">
-        <v>4.574690899292686</v>
+        <v>31.88868997596118</v>
       </c>
       <c r="N3" t="n">
-        <v>6.049171537475494</v>
+        <v>42.15080334420217</v>
       </c>
       <c r="O3" t="n">
-        <v>7.398033258238116</v>
+        <v>51.53863220956192</v>
       </c>
       <c r="P3" t="n">
-        <v>8.480613706900035</v>
+        <v>59.07319251962578</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.204290067271584</v>
+        <v>64.10984655205948</v>
       </c>
       <c r="R3" t="n">
-        <v>9.556281633977864</v>
+        <v>66.55964295403622</v>
       </c>
       <c r="S3" t="n">
-        <v>6.260777672098796</v>
+        <v>66.55964295403622</v>
       </c>
       <c r="T3" t="n">
-        <v>6.260777672098796</v>
+        <v>66.55964295403622</v>
       </c>
       <c r="U3" t="n">
-        <v>2.965273710219728</v>
+        <v>66.55964295403622</v>
       </c>
       <c r="V3" t="n">
-        <v>2.965273710219728</v>
+        <v>66.55964295403622</v>
       </c>
       <c r="W3" t="n">
-        <v>2.965273710219728</v>
+        <v>66.55964295403622</v>
       </c>
       <c r="X3" t="n">
-        <v>2.965273710219728</v>
+        <v>66.55964295403622</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.965273710219728</v>
+        <v>42.99620936734466</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.866223940065972</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.866223940065972</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.866223940065972</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.866223940065972</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.866223940065972</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.866223940065972</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.866223940065972</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.866223940065972</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5970352923692028</v>
+        <v>4.204940375576555</v>
       </c>
       <c r="K4" t="n">
-        <v>1.149238072150546</v>
+        <v>8.048169904421258</v>
       </c>
       <c r="L4" t="n">
-        <v>1.855867513507673</v>
+        <v>12.96618052372692</v>
       </c>
       <c r="M4" t="n">
-        <v>2.600909182660232</v>
+        <v>18.15153316581371</v>
       </c>
       <c r="N4" t="n">
-        <v>3.328235426170353</v>
+        <v>23.21358971190471</v>
       </c>
       <c r="O4" t="n">
-        <v>4.000038933215762</v>
+        <v>27.88921824981374</v>
       </c>
       <c r="P4" t="n">
-        <v>4.574882891135243</v>
+        <v>31.89002620378479</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.97287505111693</v>
+        <v>34.65997825309532</v>
       </c>
       <c r="R4" t="n">
-        <v>3.55650787565989</v>
+        <v>14.75972856214932</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2610039137808222</v>
+        <v>14.75972856214932</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2610039137808222</v>
+        <v>14.75972856214932</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2610039137808222</v>
+        <v>14.75972856214932</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2610039137808222</v>
+        <v>14.75972856214932</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2610039137808222</v>
+        <v>14.75972856214932</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2610039137808222</v>
+        <v>14.75972856214932</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.866223940065972</v>
       </c>
     </row>
     <row r="5">
@@ -4570,19 +4570,19 @@
         <v>18.98581709030266</v>
       </c>
       <c r="K5" t="n">
-        <v>35.56734164176019</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L5" t="n">
-        <v>56.13818908654178</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M5" t="n">
-        <v>79.02722044682884</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N5" t="n">
         <v>102.2866202642709</v>
       </c>
       <c r="O5" t="n">
-        <v>124.2498119529545</v>
+        <v>124.2498119529546</v>
       </c>
       <c r="P5" t="n">
         <v>142.9948879228476</v>
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C6" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D6" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E6" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F6" t="n">
         <v>3.305200243802188</v>
@@ -4679,19 +4679,19 @@
         <v>117.6594827452864</v>
       </c>
       <c r="U6" t="n">
-        <v>86.76985286506957</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="V6" t="n">
-        <v>86.76985286506957</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="W6" t="n">
-        <v>86.76985286506957</v>
+        <v>34.19483012401903</v>
       </c>
       <c r="X6" t="n">
-        <v>86.76985286506957</v>
+        <v>34.19483012401903</v>
       </c>
       <c r="Y6" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="C7" t="n">
-        <v>19.54022675133702</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D7" t="n">
-        <v>19.54022675133702</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E7" t="n">
-        <v>19.54022675133702</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F7" t="n">
-        <v>19.54022675133702</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G7" t="n">
-        <v>19.54022675133702</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H7" t="n">
         <v>3.305200243802188</v>
@@ -4749,28 +4749,28 @@
         <v>61.2725530619707</v>
       </c>
       <c r="R7" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="S7" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="T7" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="U7" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="V7" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="W7" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="X7" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="Y7" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>226.6705951432751</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>173.1565816877581</v>
+        <v>88.73594738064259</v>
       </c>
       <c r="D8" t="n">
-        <v>141.2872009026067</v>
+        <v>56.86656659549116</v>
       </c>
       <c r="E8" t="n">
-        <v>73.33452636306907</v>
+        <v>27.13222579419039</v>
       </c>
       <c r="F8" t="n">
-        <v>5.381851823531385</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G8" t="n">
-        <v>5.381851823531385</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H8" t="n">
-        <v>5.381851823531385</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I8" t="n">
-        <v>13.14838421658253</v>
+        <v>7.922179662952697</v>
       </c>
       <c r="J8" t="n">
-        <v>31.1457969300643</v>
+        <v>18.98581709030266</v>
       </c>
       <c r="K8" t="n">
-        <v>58.11925323961297</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L8" t="n">
-        <v>91.58221094777096</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M8" t="n">
-        <v>128.8161990197738</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N8" t="n">
-        <v>166.6526719457178</v>
+        <v>102.2866202642709</v>
       </c>
       <c r="O8" t="n">
-        <v>202.3805804136322</v>
+        <v>124.2498119529546</v>
       </c>
       <c r="P8" t="n">
-        <v>232.873523696621</v>
+        <v>142.9948879228476</v>
       </c>
       <c r="Q8" t="n">
-        <v>255.7724541923633</v>
+        <v>157.0716593183938</v>
       </c>
       <c r="R8" t="n">
-        <v>269.0925911765692</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S8" t="n">
-        <v>269.0925911765692</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T8" t="n">
-        <v>269.0925911765692</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U8" t="n">
-        <v>269.0925911765692</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V8" t="n">
-        <v>269.0925911765692</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W8" t="n">
-        <v>268.2775406280066</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X8" t="n">
-        <v>253.1754812477213</v>
+        <v>149.3429022612615</v>
       </c>
       <c r="Y8" t="n">
-        <v>248.9297615877788</v>
+        <v>145.097182601319</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>191.4039653687203</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C9" t="n">
-        <v>123.4512908291826</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D9" t="n">
-        <v>73.33452636306907</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>5.381851823531385</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>5.381851823531385</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>5.381851823531385</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
-        <v>5.381851823531385</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>9.288133583087898</v>
+        <v>5.706527910441171</v>
       </c>
       <c r="J9" t="n">
-        <v>20.00726930061744</v>
+        <v>12.29595456866669</v>
       </c>
       <c r="K9" t="n">
-        <v>38.32797956069288</v>
+        <v>23.55833427601031</v>
       </c>
       <c r="L9" t="n">
-        <v>62.9624354214375</v>
+        <v>38.70199365651513</v>
       </c>
       <c r="M9" t="n">
-        <v>91.70968347870881</v>
+        <v>56.37392987329654</v>
       </c>
       <c r="N9" t="n">
-        <v>121.2177856519498</v>
+        <v>74.51358965724877</v>
       </c>
       <c r="O9" t="n">
-        <v>148.211934264773</v>
+        <v>91.1078344893717</v>
       </c>
       <c r="P9" t="n">
-        <v>169.8771183727439</v>
+        <v>104.4261789416173</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.3597201982385</v>
+        <v>113.329139503383</v>
       </c>
       <c r="R9" t="n">
-        <v>191.4039653687203</v>
+        <v>117.6594827452864</v>
       </c>
       <c r="S9" t="n">
-        <v>191.4039653687203</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="T9" t="n">
-        <v>191.4039653687203</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="U9" t="n">
-        <v>191.4039653687203</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="V9" t="n">
-        <v>191.4039653687203</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="W9" t="n">
-        <v>191.4039653687203</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X9" t="n">
-        <v>191.4039653687203</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y9" t="n">
-        <v>191.4039653687203</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.72568504893393</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C10" t="n">
-        <v>31.72568504893393</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D10" t="n">
-        <v>31.72568504893393</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E10" t="n">
-        <v>31.72568504893393</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F10" t="n">
-        <v>31.72568504893393</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
-        <v>31.72568504893393</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
-        <v>31.72568504893393</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
-        <v>5.381851823531385</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>12.10669309714844</v>
+        <v>7.439194768028656</v>
       </c>
       <c r="K10" t="n">
-        <v>23.15767309931199</v>
+        <v>14.23261768427069</v>
       </c>
       <c r="L10" t="n">
-        <v>37.29912278283177</v>
+        <v>22.9258601234117</v>
       </c>
       <c r="M10" t="n">
-        <v>52.209298696549</v>
+        <v>32.09166539295484</v>
       </c>
       <c r="N10" t="n">
-        <v>66.76494395291984</v>
+        <v>41.03952829977035</v>
       </c>
       <c r="O10" t="n">
-        <v>80.20943824663182</v>
+        <v>49.30432794779313</v>
       </c>
       <c r="P10" t="n">
-        <v>91.71352572306249</v>
+        <v>56.37629183493586</v>
       </c>
       <c r="Q10" t="n">
-        <v>99.67835958847161</v>
+        <v>61.2725530619707</v>
       </c>
       <c r="R10" t="n">
-        <v>99.67835958847161</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="S10" t="n">
-        <v>99.67835958847161</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="T10" t="n">
-        <v>31.72568504893393</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="U10" t="n">
-        <v>31.72568504893393</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="V10" t="n">
-        <v>31.72568504893393</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="W10" t="n">
-        <v>31.72568504893393</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="X10" t="n">
-        <v>31.72568504893393</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y10" t="n">
-        <v>31.72568504893393</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>298.66064540145</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C11" t="n">
-        <v>298.66064540145</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D11" t="n">
-        <v>298.66064540145</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E11" t="n">
-        <v>298.66064540145</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F11" t="n">
-        <v>298.66064540145</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G11" t="n">
-        <v>298.66064540145</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895474</v>
@@ -5047,7 +5047,7 @@
         <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5071,22 +5071,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2319.861207662534</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="U11" t="n">
-        <v>2319.861207662534</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V11" t="n">
-        <v>1957.244257596361</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W11" t="n">
-        <v>1552.388803007394</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X11" t="n">
-        <v>1133.246339586704</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y11" t="n">
-        <v>724.9602158863578</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="C13" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="D13" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="E13" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F13" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G13" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M13" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N13" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>711.8978749657958</v>
       </c>
       <c r="U13" t="n">
-        <v>2118.080353351143</v>
+        <v>711.8978749657958</v>
       </c>
       <c r="V13" t="n">
-        <v>1831.124845221574</v>
+        <v>424.9423668362264</v>
       </c>
       <c r="W13" t="n">
-        <v>1559.098440807865</v>
+        <v>424.9423668362264</v>
       </c>
       <c r="X13" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="Y13" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1536.329659438081</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="C14" t="n">
-        <v>1536.329659438081</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D14" t="n">
-        <v>1536.329659438081</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E14" t="n">
-        <v>1102.554914596376</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F14" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895474</v>
@@ -5278,13 +5278,13 @@
         <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W14" t="n">
-        <v>1955.47212285877</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X14" t="n">
-        <v>1536.329659438081</v>
+        <v>1317.134849681798</v>
       </c>
       <c r="Y14" t="n">
-        <v>1536.329659438081</v>
+        <v>908.8487259814518</v>
       </c>
     </row>
     <row r="15">
@@ -5336,19 +5336,19 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235846</v>
       </c>
       <c r="H15" t="n">
         <v>47.20655154895474</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.20655154895474</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="C16" t="n">
-        <v>47.20655154895474</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="D16" t="n">
-        <v>47.20655154895474</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E16" t="n">
-        <v>47.20655154895474</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
         <v>47.20655154895474</v>
@@ -5463,25 +5463,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S16" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T16" t="n">
-        <v>647.4124989156879</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="U16" t="n">
-        <v>647.4124989156879</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="V16" t="n">
-        <v>360.4569907861184</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="W16" t="n">
-        <v>88.43058637240995</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="X16" t="n">
-        <v>47.20655154895474</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.20655154895474</v>
+        <v>393.6716093364613</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>475.073981139747</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="C17" t="n">
-        <v>475.073981139747</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="D17" t="n">
-        <v>475.073981139747</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E17" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
         <v>47.20655154895474</v>
@@ -5512,13 +5512,13 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L17" t="n">
         <v>805.4408022867025</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2329.045664394409</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T17" t="n">
-        <v>2329.045664394409</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U17" t="n">
-        <v>2069.974972915923</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V17" t="n">
-        <v>1707.35802284975</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="W17" t="n">
-        <v>1302.502568260783</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="X17" t="n">
-        <v>883.3601048400935</v>
+        <v>1366.796912429987</v>
       </c>
       <c r="Y17" t="n">
-        <v>475.073981139747</v>
+        <v>1306.78355819609</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495866</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765403</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927019</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235861</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
         <v>47.20655154895474</v>
@@ -5633,13 +5633,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X18" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y18" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.20655154895474</v>
+        <v>517.8135138306241</v>
       </c>
       <c r="C19" t="n">
-        <v>47.20655154895474</v>
+        <v>517.8135138306241</v>
       </c>
       <c r="D19" t="n">
-        <v>47.20655154895474</v>
+        <v>351.9355210321468</v>
       </c>
       <c r="E19" t="n">
-        <v>47.20655154895474</v>
+        <v>182.177517282884</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895474</v>
+        <v>182.177517282884</v>
       </c>
       <c r="G19" t="n">
         <v>47.20655154895474</v>
@@ -5700,25 +5700,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S19" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T19" t="n">
-        <v>647.4124989156879</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U19" t="n">
-        <v>369.0258669644309</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V19" t="n">
-        <v>82.07035883486139</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W19" t="n">
-        <v>82.07035883486139</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X19" t="n">
-        <v>47.20655154895474</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.20655154895474</v>
+        <v>517.8135138306241</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>495.1755175709091</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C20" t="n">
-        <v>495.1755175709091</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D20" t="n">
-        <v>495.1755175709091</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>495.1755175709091</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G20" t="n">
         <v>47.20655154895474</v>
@@ -5752,7 +5752,7 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
         <v>512.3249274228019</v>
@@ -5785,19 +5785,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2108.089956131646</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>1745.473006065473</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W20" t="n">
-        <v>1340.617551476506</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X20" t="n">
-        <v>921.4750880558169</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y20" t="n">
-        <v>921.4750880558169</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>930.5806015906853</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>762.8256627965038</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R21" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S21" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T21" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U21" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V21" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>547.5837284841764</v>
+        <v>88.43058637240995</v>
       </c>
       <c r="C22" t="n">
-        <v>547.5837284841764</v>
+        <v>88.43058637240995</v>
       </c>
       <c r="D22" t="n">
-        <v>381.7057356856991</v>
+        <v>88.43058637240995</v>
       </c>
       <c r="E22" t="n">
-        <v>211.9477319364363</v>
+        <v>88.43058637240995</v>
       </c>
       <c r="F22" t="n">
-        <v>211.9477319364363</v>
+        <v>88.43058637240995</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895474</v>
+        <v>88.43058637240995</v>
       </c>
       <c r="H22" t="n">
         <v>47.20655154895474</v>
@@ -5940,22 +5940,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T22" t="n">
-        <v>819.6101328978848</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="U22" t="n">
-        <v>819.6101328978848</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="V22" t="n">
-        <v>819.6101328978848</v>
+        <v>360.4569907861184</v>
       </c>
       <c r="W22" t="n">
-        <v>547.5837284841764</v>
+        <v>88.43058637240995</v>
       </c>
       <c r="X22" t="n">
-        <v>547.5837284841764</v>
+        <v>88.43058637240995</v>
       </c>
       <c r="Y22" t="n">
-        <v>547.5837284841764</v>
+        <v>88.43058637240995</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1310.486457285825</v>
+        <v>919.1237692072363</v>
       </c>
       <c r="C23" t="n">
-        <v>1310.486457285825</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D23" t="n">
-        <v>874.5766724602698</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E23" t="n">
-        <v>874.5766724602698</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F23" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G23" t="n">
         <v>47.20655154895474</v>
@@ -5986,16 +5986,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M23" t="n">
         <v>1131.58869045549</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T23" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U23" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V23" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W23" t="n">
-        <v>1915.005753073567</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="X23" t="n">
-        <v>1915.005753073567</v>
+        <v>1536.329659438081</v>
       </c>
       <c r="Y23" t="n">
-        <v>1736.786027770733</v>
+        <v>1128.043535737734</v>
       </c>
     </row>
     <row r="24">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1854.521274810588</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="C25" t="n">
-        <v>1854.521274810588</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="D25" t="n">
-        <v>1854.521274810588</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E25" t="n">
-        <v>1854.521274810588</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F25" t="n">
-        <v>1677.814220772344</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G25" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H25" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I25" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J25" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M25" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N25" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q25" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T25" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U25" t="n">
-        <v>2081.94094549648</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V25" t="n">
-        <v>2081.94094549648</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="W25" t="n">
-        <v>2081.94094549648</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="X25" t="n">
-        <v>2081.94094549648</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="Y25" t="n">
-        <v>1854.521274810588</v>
+        <v>47.20655154895474</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1849.01926465316</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="C26" t="n">
-        <v>1410.876791836584</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D26" t="n">
-        <v>974.9670070110283</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E26" t="n">
-        <v>541.1922621693234</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F26" t="n">
-        <v>113.3248325785311</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U26" t="n">
-        <v>1849.01926465316</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V26" t="n">
-        <v>1849.01926465316</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W26" t="n">
-        <v>1849.01926465316</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="X26" t="n">
-        <v>1849.01926465316</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="Y26" t="n">
-        <v>1849.01926465316</v>
+        <v>1773.290769282936</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M27" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N27" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O27" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P27" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q27" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R27" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S27" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T27" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U27" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V27" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="C28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
         <v>106.1122152511379</v>
@@ -6414,22 +6414,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T28" t="n">
-        <v>647.4124989156879</v>
+        <v>843.0113425805077</v>
       </c>
       <c r="U28" t="n">
-        <v>369.0258669644309</v>
+        <v>564.6247106292508</v>
       </c>
       <c r="V28" t="n">
-        <v>369.0258669644309</v>
+        <v>564.6247106292508</v>
       </c>
       <c r="W28" t="n">
-        <v>369.0258669644309</v>
+        <v>292.5983062155423</v>
       </c>
       <c r="X28" t="n">
-        <v>369.0258669644309</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="Y28" t="n">
-        <v>141.6061962785392</v>
+        <v>47.20655154895473</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1782.900983623584</v>
+        <v>1652.504392483701</v>
       </c>
       <c r="C29" t="n">
-        <v>1344.758510807007</v>
+        <v>1214.361919667124</v>
       </c>
       <c r="D29" t="n">
-        <v>908.8487259814518</v>
+        <v>778.4521348415687</v>
       </c>
       <c r="E29" t="n">
-        <v>475.073981139747</v>
+        <v>344.6773899998639</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895474</v>
+        <v>344.6773899998639</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J29" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K29" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867027</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W29" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.185114027048</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="Y29" t="n">
-        <v>1941.185114027048</v>
+        <v>1652.504392483701</v>
       </c>
     </row>
     <row r="30">
@@ -6521,25 +6521,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1665.488002587006</v>
+        <v>357.3124602161242</v>
       </c>
       <c r="C31" t="n">
-        <v>1517.87440598441</v>
+        <v>357.3124602161242</v>
       </c>
       <c r="D31" t="n">
-        <v>1517.87440598441</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="E31" t="n">
-        <v>1517.87440598441</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F31" t="n">
-        <v>1517.87440598441</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G31" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H31" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I31" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M31" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N31" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R31" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S31" t="n">
-        <v>2215.901038951972</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T31" t="n">
-        <v>2215.901038951972</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U31" t="n">
-        <v>1937.514407000715</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V31" t="n">
-        <v>1937.514407000715</v>
+        <v>602.7042148827118</v>
       </c>
       <c r="W31" t="n">
-        <v>1665.488002587006</v>
+        <v>602.7042148827118</v>
       </c>
       <c r="X31" t="n">
-        <v>1665.488002587006</v>
+        <v>357.3124602161242</v>
       </c>
       <c r="Y31" t="n">
-        <v>1665.488002587006</v>
+        <v>357.3124602161242</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>316.9281030050443</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C32" t="n">
-        <v>316.9281030050443</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D32" t="n">
-        <v>316.9281030050443</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E32" t="n">
-        <v>316.9281030050443</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G32" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H32" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L32" t="n">
         <v>805.4408022867025</v>
@@ -6730,22 +6730,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>1975.511715199955</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V32" t="n">
-        <v>1975.511715199955</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W32" t="n">
-        <v>1570.656260610988</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X32" t="n">
-        <v>1151.513797190299</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y32" t="n">
-        <v>743.2276734899522</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="33">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.20655154895474</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="C34" t="n">
-        <v>47.20655154895474</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D34" t="n">
-        <v>47.20655154895474</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E34" t="n">
-        <v>47.20655154895474</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F34" t="n">
         <v>47.20655154895474</v>
@@ -6894,16 +6894,16 @@
         <v>611.2730910610244</v>
       </c>
       <c r="V34" t="n">
-        <v>324.3175829314549</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="W34" t="n">
-        <v>52.2911785177464</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="X34" t="n">
-        <v>47.20655154895474</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.20655154895474</v>
+        <v>559.5496021349386</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1310.486457285825</v>
+        <v>2016.215441574641</v>
       </c>
       <c r="C35" t="n">
-        <v>1310.486457285825</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="D35" t="n">
-        <v>874.5766724602698</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E35" t="n">
-        <v>874.5766724602698</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F35" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M35" t="n">
         <v>1131.58869045549</v>
@@ -6967,22 +6967,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2123.628035575139</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U35" t="n">
-        <v>2123.628035575139</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V35" t="n">
-        <v>2123.628035575139</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W35" t="n">
-        <v>1718.772580986172</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X35" t="n">
-        <v>1718.772580986172</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y35" t="n">
-        <v>1310.486457285825</v>
+        <v>2319.861207662534</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>225.029678940815</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="C37" t="n">
-        <v>225.029678940815</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="D37" t="n">
-        <v>216.9645552982175</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="E37" t="n">
-        <v>47.20655154895474</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895474</v>
@@ -7131,16 +7131,16 @@
         <v>889.6597230122813</v>
       </c>
       <c r="V37" t="n">
-        <v>889.6597230122813</v>
+        <v>646.7726234575264</v>
       </c>
       <c r="W37" t="n">
-        <v>889.6597230122813</v>
+        <v>646.7726234575264</v>
       </c>
       <c r="X37" t="n">
-        <v>644.2679683456938</v>
+        <v>646.7726234575264</v>
       </c>
       <c r="Y37" t="n">
-        <v>416.8482976598021</v>
+        <v>419.3529527716346</v>
       </c>
     </row>
     <row r="38">
@@ -7171,16 +7171,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M38" t="n">
         <v>1131.58869045549</v>
@@ -7195,7 +7195,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R38" t="n">
         <v>2360.327577447737</v>
@@ -7204,22 +7204,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V38" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W38" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X38" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y38" t="n">
-        <v>2209.200554108492</v>
+        <v>2108.089956131646</v>
       </c>
     </row>
     <row r="39">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>697.8411042932942</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C40" t="n">
-        <v>525.2793927765191</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="D40" t="n">
-        <v>359.4013999780418</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E40" t="n">
-        <v>189.6433962287791</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F40" t="n">
         <v>47.20655154895474</v>
@@ -7374,10 +7374,10 @@
         <v>889.6597230122813</v>
       </c>
       <c r="X40" t="n">
-        <v>889.6597230122813</v>
+        <v>758.0519395722235</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.6597230122813</v>
+        <v>758.0519395722235</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>446.7092428694776</v>
+        <v>1316.393772536738</v>
       </c>
       <c r="C41" t="n">
-        <v>446.7092428694776</v>
+        <v>1316.393772536738</v>
       </c>
       <c r="D41" t="n">
-        <v>446.7092428694776</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E41" t="n">
         <v>446.7092428694776</v>
@@ -7402,61 +7402,61 @@
         <v>446.7092428694776</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001358</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228015</v>
+        <v>512.324927422802</v>
       </c>
       <c r="L41" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V41" t="n">
-        <v>1486.402314586986</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W41" t="n">
-        <v>1292.151276775075</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X41" t="n">
-        <v>873.0088133543854</v>
+        <v>1900.718744241845</v>
       </c>
       <c r="Y41" t="n">
-        <v>873.0088133543854</v>
+        <v>1492.432620541498</v>
       </c>
     </row>
     <row r="42">
@@ -7469,25 +7469,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
@@ -7496,10 +7496,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1694.581460022653</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="C43" t="n">
-        <v>1694.581460022653</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="D43" t="n">
-        <v>1694.581460022653</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E43" t="n">
-        <v>1694.581460022653</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F43" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G43" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H43" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I43" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>1576.780069686592</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>1797.450971872448</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M43" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N43" t="n">
-        <v>2055.554276014867</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.320157362629</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447736</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447736</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T43" t="n">
-        <v>2360.327577447736</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U43" t="n">
-        <v>2081.940945496479</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V43" t="n">
-        <v>2081.940945496479</v>
+        <v>756.4433293482379</v>
       </c>
       <c r="W43" t="n">
-        <v>1809.91454108277</v>
+        <v>484.4169249345294</v>
       </c>
       <c r="X43" t="n">
-        <v>1694.581460022653</v>
+        <v>239.0251702679419</v>
       </c>
       <c r="Y43" t="n">
-        <v>1694.581460022653</v>
+        <v>239.0251702679419</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.2588091910869</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="C44" t="n">
-        <v>483.1163363745102</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="D44" t="n">
-        <v>47.20655154895472</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E44" t="n">
-        <v>47.20655154895472</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.406501800135</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435803</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867018</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U44" t="n">
-        <v>2107.873677266916</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V44" t="n">
-        <v>1745.256727200743</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W44" t="n">
-        <v>1340.401272611776</v>
+        <v>2164.711923571246</v>
       </c>
       <c r="X44" t="n">
-        <v>921.2588091910869</v>
+        <v>1745.569460150557</v>
       </c>
       <c r="Y44" t="n">
-        <v>921.2588091910869</v>
+        <v>1337.28333645021</v>
       </c>
     </row>
     <row r="45">
@@ -7706,25 +7706,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.2911785177464</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="C46" t="n">
-        <v>52.2911785177464</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="D46" t="n">
-        <v>52.2911785177464</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="E46" t="n">
-        <v>52.2911785177464</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
         <v>202.912315818696</v>
@@ -7836,22 +7836,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T46" t="n">
-        <v>889.6597230122813</v>
+        <v>774.326641952164</v>
       </c>
       <c r="U46" t="n">
-        <v>611.2730910610244</v>
+        <v>495.940010000907</v>
       </c>
       <c r="V46" t="n">
-        <v>324.3175829314549</v>
+        <v>495.940010000907</v>
       </c>
       <c r="W46" t="n">
-        <v>52.2911785177464</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="X46" t="n">
-        <v>52.2911785177464</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="Y46" t="n">
-        <v>52.2911785177464</v>
+        <v>223.9136055871985</v>
       </c>
     </row>
   </sheetData>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.77402585779841</v>
+        <v>1.489449199932334</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>10.43324883758627</v>
       </c>
       <c r="D2" t="n">
-        <v>28.67703388657305</v>
+        <v>8.222887726475257</v>
       </c>
       <c r="E2" t="n">
-        <v>26.17444847102748</v>
+        <v>6.109198142463107</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -22615,7 +22615,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.9407135410828169</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>18.08478302755836</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>100.0994919970771</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23433,7 +23433,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>206.8227954004146</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>202.126042644701</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>41.32587622678363</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>247.3762485303458</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23661,10 +23661,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.0937685836068</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>175.8647454756473</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>202.126042644701</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23740,13 +23740,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.092612164556247</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>344.7900417717858</v>
       </c>
     </row>
     <row r="18">
@@ -23895,16 +23895,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>29.47251250701677</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>208.4226679068741</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>375.6071433404672</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>338.7461642440623</v>
       </c>
     </row>
     <row r="21">
@@ -24132,19 +24132,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>90.20882553925661</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -24180,13 +24180,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>170.4756576423748</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>215.2060059148658</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.7657344135373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24375,10 +24375,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>4.753351943552136</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
         <v>131.0206200144773</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>237.9040564208179</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>330.050566188037</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>289.1703459594707</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.44478424950863</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -24654,7 +24654,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>193.6428552281716</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>265.3352856806295</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>101.0115343409175</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24745,10 +24745,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,10 +24840,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.69863376503719</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>20.3081318736015</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -24852,7 +24852,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>131.0206200144773</v>
@@ -24888,22 +24888,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>125.2275260413262</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>305.3969917679806</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25080,13 +25080,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.0937685836068</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>232.8796990114489</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>237.9040564208179</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>121.4272663530444</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>15.38269864905751</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
@@ -25216,13 +25216,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>156.234740464321</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>43.62772448906642</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>100.0994919970768</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
@@ -25459,7 +25459,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>294.6492154448413</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>33.92750726483524</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.0937685836068</v>
@@ -25614,7 +25614,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>112.6461315142644</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>247.7581152553461</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>208.4983726092848</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -25797,7 +25797,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.0937685836068</v>
@@ -25842,16 +25842,16 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>152.2017233208708</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>128.7580868704055</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
@@ -25921,19 +25921,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>6.550623384689601</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>207.1474027053511</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26034,7 +26034,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>169.9062027987576</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.0937685836068</v>
@@ -26076,13 +26076,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>125.6450016061112</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>603051.3432122169</v>
+        <v>610179.4919291268</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>321599.8855372853</v>
+        <v>321599.8855372854</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>321599.8855372854</v>
+        <v>321599.8855372853</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>321599.8855372854</v>
+        <v>321599.8855372853</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>321599.8855372854</v>
+        <v>321599.8855372853</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>321599.8855372854</v>
+        <v>321599.8855372855</v>
       </c>
     </row>
     <row r="15">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>314635.4834150697</v>
+        <v>318354.5175282399</v>
       </c>
       <c r="C2" t="n">
         <v>321688.3919342448</v>
       </c>
       <c r="D2" t="n">
-        <v>321688.391934245</v>
+        <v>321688.3919342451</v>
       </c>
       <c r="E2" t="n">
         <v>167791.2446281489</v>
@@ -26337,13 +26337,13 @@
         <v>167791.2446281489</v>
       </c>
       <c r="J2" t="n">
-        <v>167791.244628149</v>
+        <v>167791.2446281489</v>
       </c>
       <c r="K2" t="n">
-        <v>167791.244628149</v>
+        <v>167791.2446281489</v>
       </c>
       <c r="L2" t="n">
-        <v>167791.244628149</v>
+        <v>167791.2446281489</v>
       </c>
       <c r="M2" t="n">
         <v>167791.2446281489</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3658.813870389771</v>
+        <v>25672.8015016893</v>
       </c>
       <c r="C3" t="n">
-        <v>39694.34694747527</v>
+        <v>18763.31828088763</v>
       </c>
       <c r="D3" t="n">
-        <v>25642.93946003388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>488243.5714067375</v>
+        <v>512485.5095559817</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>853.626350215868</v>
+        <v>6103.578707182734</v>
       </c>
       <c r="K3" t="n">
-        <v>9793.484013311734</v>
+        <v>4629.330666749781</v>
       </c>
       <c r="L3" t="n">
-        <v>6569.772812065526</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130286.03087968</v>
+        <v>136754.9043831154</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298397.3305546049</v>
+        <v>296522.4331491438</v>
       </c>
       <c r="C4" t="n">
         <v>294841.7084545743</v>
       </c>
       <c r="D4" t="n">
-        <v>287839.3266282644</v>
+        <v>294841.7084545743</v>
       </c>
       <c r="E4" t="n">
         <v>414.2905444231689</v>
@@ -26432,34 +26432,34 @@
         <v>414.2905444231689</v>
       </c>
       <c r="G4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="H4" t="n">
         <v>414.290544423169</v>
       </c>
       <c r="I4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="J4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="K4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="L4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="M4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="N4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="O4" t="n">
         <v>414.2905444231689</v>
       </c>
       <c r="P4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33884.00183384596</v>
+        <v>35449.86995413285</v>
       </c>
       <c r="C5" t="n">
         <v>36853.56981021012</v>
       </c>
       <c r="D5" t="n">
-        <v>38879.31235789481</v>
+        <v>36853.56981021012</v>
       </c>
       <c r="E5" t="n">
         <v>46051.08120963782</v>
@@ -26493,10 +26493,10 @@
         <v>46051.08120963782</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
         <v>46051.08120963782</v>
@@ -26508,10 +26508,10 @@
         <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21304.66284377092</v>
+        <v>-39304.47822008441</v>
       </c>
       <c r="C6" t="n">
-        <v>-49701.23327801485</v>
+        <v>-28770.20461142719</v>
       </c>
       <c r="D6" t="n">
-        <v>-30673.18651194812</v>
+        <v>-10006.8863305394</v>
       </c>
       <c r="E6" t="n">
-        <v>-366917.6985326495</v>
+        <v>-391800.8747956692</v>
       </c>
       <c r="F6" t="n">
-        <v>121325.8728740879</v>
+        <v>120684.6347603126</v>
       </c>
       <c r="G6" t="n">
-        <v>121325.8728740879</v>
+        <v>120684.6347603125</v>
       </c>
       <c r="H6" t="n">
-        <v>121325.872874088</v>
+        <v>120684.6347603125</v>
       </c>
       <c r="I6" t="n">
-        <v>121325.8728740879</v>
+        <v>120684.6347603125</v>
       </c>
       <c r="J6" t="n">
-        <v>120472.2465238721</v>
+        <v>114581.0560531298</v>
       </c>
       <c r="K6" t="n">
-        <v>111532.3888607762</v>
+        <v>116055.3040935628</v>
       </c>
       <c r="L6" t="n">
-        <v>114756.1000620225</v>
+        <v>120684.6347603125</v>
       </c>
       <c r="M6" t="n">
-        <v>-8960.158005592093</v>
+        <v>-16070.26962280292</v>
       </c>
       <c r="N6" t="n">
-        <v>121325.872874088</v>
+        <v>120684.6347603125</v>
       </c>
       <c r="O6" t="n">
-        <v>121325.8728740879</v>
+        <v>120684.6347603125</v>
       </c>
       <c r="P6" t="n">
-        <v>121325.8728740879</v>
+        <v>120684.6347603125</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.662332998740293</v>
+        <v>18.52934677443662</v>
       </c>
       <c r="C3" t="n">
         <v>32.7531020605716</v>
       </c>
       <c r="D3" t="n">
-        <v>53.28004458765882</v>
+        <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
         <v>466.7019280932212</v>
@@ -26776,10 +26776,10 @@
         <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.262548922260277</v>
+        <v>23.32779925082465</v>
       </c>
       <c r="C4" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="D4" t="n">
-        <v>67.2731477941423</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
         <v>590.0818943619342</v>
@@ -26813,10 +26813,10 @@
         <v>590.0818943619342</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
         <v>590.0818943619342</v>
@@ -26828,10 +26828,10 @@
         <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.662332998740293</v>
+        <v>18.52934677443662</v>
       </c>
       <c r="C3" t="n">
-        <v>30.09076906183131</v>
+        <v>14.22375528613498</v>
       </c>
       <c r="D3" t="n">
-        <v>20.52694252708722</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>413.4218835055623</v>
+        <v>433.9488260326495</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.262548922260277</v>
+        <v>23.32779925082465</v>
       </c>
       <c r="C4" t="n">
-        <v>38.05245412526707</v>
+        <v>17.9872037967027</v>
       </c>
       <c r="D4" t="n">
-        <v>25.95814474661496</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>522.8087465677919</v>
+        <v>548.7668913144068</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.262548922260277</v>
+        <v>23.32779925082453</v>
       </c>
       <c r="K4" t="n">
-        <v>38.05245412526707</v>
+        <v>17.9872037967027</v>
       </c>
       <c r="L4" t="n">
-        <v>25.95814474661496</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.8087465677919</v>
+        <v>548.7668913144068</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.262548922260277</v>
+        <v>23.32779925082465</v>
       </c>
       <c r="K4" t="n">
-        <v>38.05245412526707</v>
+        <v>17.9872037967027</v>
       </c>
       <c r="L4" t="n">
-        <v>25.95814474661496</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.8087465677919</v>
+        <v>548.7668913144068</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3731502167427</v>
+        <v>397.3093632266896</v>
       </c>
       <c r="H2" t="n">
-        <v>286.1292424873029</v>
+        <v>285.4759839754221</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.5714639696243</v>
+        <v>81.11791793379041</v>
       </c>
       <c r="T2" t="n">
-        <v>217.819703146337</v>
+        <v>217.5404755973798</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6292234284552</v>
+        <v>256.624120469251</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27460,10 +27460,10 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
-        <v>105.3918965517241</v>
+        <v>82.06409730089948</v>
       </c>
       <c r="D3" t="n">
-        <v>91.46215886643776</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
         <v>93.17921052631581</v>
@@ -27472,10 +27472,10 @@
         <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>84.52551230889576</v>
+        <v>84.49138326039709</v>
       </c>
       <c r="H3" t="n">
-        <v>41.26298946135317</v>
+        <v>23.54248838130321</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>59.45196651563608</v>
+        <v>62.08058333091454</v>
       </c>
       <c r="T3" t="n">
-        <v>128.8537753079323</v>
+        <v>128.7162112922732</v>
       </c>
       <c r="U3" t="n">
-        <v>171.3102558625354</v>
+        <v>174.5705594526576</v>
       </c>
       <c r="V3" t="n">
         <v>197.1263427586206</v>
@@ -27526,7 +27526,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
-        <v>125.2209214285714</v>
+        <v>101.8931221777468</v>
       </c>
     </row>
     <row r="4">
@@ -27551,13 +27551,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9305612960722</v>
+        <v>163.90194864828</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4604679489429</v>
+        <v>138.2060754985719</v>
       </c>
       <c r="I4" t="n">
-        <v>87.62897272389382</v>
+        <v>86.76851237028721</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>19.58557238106511</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>154.3027390048774</v>
+        <v>157.0666475106129</v>
       </c>
       <c r="T4" t="n">
-        <v>243.400138899798</v>
+        <v>243.2778848592312</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6484088706061</v>
+        <v>275.6468481807266</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -27605,7 +27605,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>212.3809044031703</v>
       </c>
     </row>
     <row r="5">
@@ -27703,10 +27703,10 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E6" t="n">
-        <v>51.86420747878847</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
-        <v>41.23499695247265</v>
+        <v>82.55</v>
       </c>
       <c r="G6" t="n">
         <v>84.46078876789484</v>
@@ -27751,19 +27751,19 @@
         <v>128.5928940176698</v>
       </c>
       <c r="U6" t="n">
-        <v>143.9878130756836</v>
+        <v>133.2535436095709</v>
       </c>
       <c r="V6" t="n">
         <v>197.1263427586206</v>
       </c>
       <c r="W6" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X6" t="n">
         <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
-        <v>125.2209214285714</v>
+        <v>94.64018784715674</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>129.52109135408</v>
+        <v>131.9963722458993</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -27791,7 +27791,7 @@
         <v>163.8762992535017</v>
       </c>
       <c r="H7" t="n">
-        <v>121.9053528189019</v>
+        <v>137.9780290613614</v>
       </c>
       <c r="I7" t="n">
         <v>85.99716511640959</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>156.6196485125224</v>
@@ -27855,22 +27855,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>380.7821747674491</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>362.1638495991455</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>356.315607500742</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.169661928948</v>
+        <v>397.2521823009162</v>
       </c>
       <c r="H8" t="n">
-        <v>284.045268059926</v>
+        <v>284.8903798193452</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>77.93447461150377</v>
+        <v>79.8149075877289</v>
       </c>
       <c r="T8" t="n">
-        <v>216.928933166516</v>
+        <v>217.2901660948067</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6129443654316</v>
+        <v>256.6195459951891</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27934,22 +27934,22 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>38.11874875758183</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>44.52378914345985</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E9" t="n">
-        <v>25.90606273217351</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>84.41663647642147</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H9" t="n">
-        <v>40.21147813193055</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,16 +27982,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>60.69219460224476</v>
+        <v>20.19730100379491</v>
       </c>
       <c r="T9" t="n">
-        <v>128.414929298968</v>
+        <v>128.5928940176698</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5656419010803</v>
+        <v>174.5685466570983</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>166.545609177206</v>
       </c>
       <c r="W9" t="n">
         <v>183.4695267241379</v>
@@ -28025,13 +28025,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.839283455502</v>
+        <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
-        <v>137.6489249664189</v>
+        <v>137.9780290613614</v>
       </c>
       <c r="I10" t="n">
-        <v>58.80360422523478</v>
+        <v>85.99716511640959</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>16.88359225331199</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>155.9745641055646</v>
+        <v>156.6196485125224</v>
       </c>
       <c r="T10" t="n">
-        <v>175.7369857868558</v>
+        <v>204.328569834925</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6434300793023</v>
+        <v>275.6454491228296</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01070284622609162</v>
+        <v>0.07448983627914214</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1096105239129608</v>
+        <v>0.7628690357937646</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>2.87176941315163</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9083906948817446</v>
+        <v>6.322231741896847</v>
       </c>
       <c r="K2" t="n">
-        <v>1.361442175632203</v>
+        <v>9.475386511592935</v>
       </c>
       <c r="L2" t="n">
-        <v>1.688989405823955</v>
+        <v>11.75505483862073</v>
       </c>
       <c r="M2" t="n">
-        <v>1.879326147397212</v>
+        <v>13.07976346454993</v>
       </c>
       <c r="N2" t="n">
-        <v>1.909735609237095</v>
+        <v>13.29140771187804</v>
       </c>
       <c r="O2" t="n">
-        <v>1.803309182076396</v>
+        <v>12.55069940237732</v>
       </c>
       <c r="P2" t="n">
-        <v>1.539082665869759</v>
+        <v>10.711731569236</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.155786985397852</v>
+        <v>8.044064307489217</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6723126642497284</v>
+        <v>4.679172178169667</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2438911083770631</v>
+        <v>1.697437144210953</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.3260792583119449</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.00595918690233137</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.03985557608086368</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05530620059647288</v>
+        <v>0.3849209584651835</v>
       </c>
       <c r="I3" t="n">
-        <v>0.19716334000105</v>
+        <v>1.372220492257807</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5410312747723081</v>
+        <v>3.765477913850371</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9247086227794469</v>
+        <v>6.435801511268237</v>
       </c>
       <c r="L3" t="n">
-        <v>1.243384859458851</v>
+        <v>8.653729359136651</v>
       </c>
       <c r="M3" t="n">
-        <v>1.450971484313459</v>
+        <v>10.09849399206796</v>
       </c>
       <c r="N3" t="n">
-        <v>1.489374382002836</v>
+        <v>10.3657710790313</v>
       </c>
       <c r="O3" t="n">
-        <v>1.362486586628912</v>
+        <v>9.482655419555316</v>
       </c>
       <c r="P3" t="n">
-        <v>1.093515604709008</v>
+        <v>7.61066697986247</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7309862225975235</v>
+        <v>5.087529325690599</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3555470370770528</v>
+        <v>2.474541820178537</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.7402998451862174</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02308192477209743</v>
+        <v>0.1606459404312005</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.002622077373741032</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.03341357615062341</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.2970770679573611</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1443770091775884</v>
+        <v>1.004837362784203</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3394256349377582</v>
+        <v>2.362339833849075</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5577805856377201</v>
+        <v>3.882050029136065</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7137671124819468</v>
+        <v>4.96768749424814</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7525673425783419</v>
+        <v>5.237729941501813</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7346729732425471</v>
+        <v>5.113188430394948</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6785894010559685</v>
+        <v>4.722857108999027</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5806504625449318</v>
+        <v>4.041220155526307</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4020122828097842</v>
+        <v>2.79793136293993</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2158671969142538</v>
+        <v>1.502395887645303</v>
       </c>
       <c r="S4" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.5823075043704097</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02051305753127766</v>
+        <v>0.1427670980981182</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.001822558699124915</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2141911340207388</v>
+        <v>0.131670762052549</v>
       </c>
       <c r="H8" t="n">
-        <v>2.193584951289892</v>
+        <v>1.348473191870668</v>
       </c>
       <c r="I8" t="n">
-        <v>8.257603694334541</v>
+        <v>5.076237054030902</v>
       </c>
       <c r="J8" t="n">
-        <v>18.1792047610927</v>
+        <v>11.17539134075754</v>
       </c>
       <c r="K8" t="n">
-        <v>27.24591546419058</v>
+        <v>16.74901469844195</v>
       </c>
       <c r="L8" t="n">
-        <v>33.80096738197777</v>
+        <v>20.77863378260765</v>
       </c>
       <c r="M8" t="n">
-        <v>37.61008896161908</v>
+        <v>23.12023369725967</v>
       </c>
       <c r="N8" t="n">
-        <v>38.21865952115551</v>
+        <v>23.49434324994148</v>
       </c>
       <c r="O8" t="n">
-        <v>36.08879643223678</v>
+        <v>22.18504210978144</v>
       </c>
       <c r="P8" t="n">
-        <v>30.80095281109979</v>
+        <v>18.93442017160913</v>
       </c>
       <c r="Q8" t="n">
-        <v>23.13023282398208</v>
+        <v>14.21896100560222</v>
       </c>
       <c r="R8" t="n">
-        <v>13.45468382243025</v>
+        <v>8.271063506783442</v>
       </c>
       <c r="S8" t="n">
-        <v>4.880880466497591</v>
+        <v>3.000447490272464</v>
       </c>
       <c r="T8" t="n">
-        <v>0.9376216891757847</v>
+        <v>0.5763887608850338</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0171352907216591</v>
+        <v>0.01053366096420392</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1146023600564737</v>
+        <v>0.07045006858311627</v>
       </c>
       <c r="H9" t="n">
-        <v>1.106817530019101</v>
+        <v>0.6803993465790441</v>
       </c>
       <c r="I9" t="n">
-        <v>3.945739151067187</v>
+        <v>2.425583501655538</v>
       </c>
       <c r="J9" t="n">
-        <v>10.8274098156864</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K9" t="n">
-        <v>18.50576793947014</v>
+        <v>11.37614111852891</v>
       </c>
       <c r="L9" t="n">
-        <v>24.88328874822689</v>
+        <v>15.29662563687356</v>
       </c>
       <c r="M9" t="n">
-        <v>29.03762430027405</v>
+        <v>17.85044062301152</v>
       </c>
       <c r="N9" t="n">
-        <v>29.80616381135453</v>
+        <v>18.32288867065882</v>
       </c>
       <c r="O9" t="n">
-        <v>27.26681678062951</v>
+        <v>16.76186346679082</v>
       </c>
       <c r="P9" t="n">
-        <v>21.88402435148576</v>
+        <v>13.45287318408648</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.62889073282285</v>
+        <v>8.992889456329019</v>
       </c>
       <c r="R9" t="n">
-        <v>7.115399162102817</v>
+        <v>4.374084082730677</v>
       </c>
       <c r="S9" t="n">
-        <v>2.12868857385599</v>
+        <v>1.308579124778497</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4619279337364004</v>
+        <v>0.2839632150345782</v>
       </c>
       <c r="U9" t="n">
-        <v>0.007539628951083799</v>
+        <v>0.004634872933099756</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09607876892856508</v>
+        <v>0.0590629709288996</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8542276001103337</v>
+        <v>0.5251235051678532</v>
       </c>
       <c r="I10" t="n">
-        <v>2.889350614688122</v>
+        <v>1.776184616661818</v>
       </c>
       <c r="J10" t="n">
-        <v>6.792768963249551</v>
+        <v>4.175752044673201</v>
       </c>
       <c r="K10" t="n">
-        <v>11.16260606279147</v>
+        <v>6.862043349739425</v>
       </c>
       <c r="L10" t="n">
-        <v>14.28429260961594</v>
+        <v>8.781052968829311</v>
       </c>
       <c r="M10" t="n">
-        <v>15.06078375122952</v>
+        <v>9.258389161154687</v>
       </c>
       <c r="N10" t="n">
-        <v>14.70267197613216</v>
+        <v>9.038245360419706</v>
       </c>
       <c r="O10" t="n">
-        <v>13.58029726637573</v>
+        <v>8.348282472750284</v>
       </c>
       <c r="P10" t="n">
-        <v>11.62029038023299</v>
+        <v>7.143397865800726</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.045286732736482</v>
+        <v>4.945718411146311</v>
       </c>
       <c r="R10" t="n">
-        <v>4.320050828369843</v>
+        <v>2.655685947403067</v>
       </c>
       <c r="S10" t="n">
-        <v>1.67439090941872</v>
+        <v>1.029306502460914</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4105183763311416</v>
+        <v>0.2523599666962073</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005240660123376283</v>
+        <v>0.0032216165961218</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32332,7 +32332,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -32563,13 +32563,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811311</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -32800,7 +32800,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
@@ -33043,13 +33043,13 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
@@ -33259,7 +33259,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -33496,7 +33496,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -33660,7 +33660,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.658232706284</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766674</v>
@@ -33754,7 +33754,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
@@ -33970,7 +33970,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -34128,28 +34128,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -34161,7 +34161,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,13 +34204,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34222,25 +34222,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
         <v>0.06604272567356906</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
@@ -34292,7 +34292,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34316,10 +34316,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
         <v>0.04590510768130049</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34398,7 +34398,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,13 +34441,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34459,7 +34459,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
@@ -34471,13 +34471,13 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356906</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
@@ -34529,7 +34529,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34553,10 +34553,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
         <v>0.04590510768130049</v>
@@ -34695,34 +34695,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.459147934020232</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9083906948817464</v>
+        <v>6.322231741896841</v>
       </c>
       <c r="K2" t="n">
-        <v>1.361442175632203</v>
+        <v>9.475386511592935</v>
       </c>
       <c r="L2" t="n">
-        <v>1.688989405823955</v>
+        <v>11.75505483862075</v>
       </c>
       <c r="M2" t="n">
-        <v>1.879326147397212</v>
+        <v>13.07976346454993</v>
       </c>
       <c r="N2" t="n">
-        <v>1.909735609237095</v>
+        <v>13.29140771187804</v>
       </c>
       <c r="O2" t="n">
-        <v>1.803309182076395</v>
+        <v>12.55069940237732</v>
       </c>
       <c r="P2" t="n">
-        <v>1.53908266586976</v>
+        <v>10.71173156923599</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.155786985397853</v>
+        <v>8.044064307489222</v>
       </c>
       <c r="R2" t="n">
-        <v>0.672312664249727</v>
+        <v>4.679172178169651</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.19716334000105</v>
+        <v>1.372220492257807</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5410312747723081</v>
+        <v>3.765477913850371</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9247086227794468</v>
+        <v>6.435801511268236</v>
       </c>
       <c r="L3" t="n">
-        <v>1.243384859458851</v>
+        <v>8.653729359136651</v>
       </c>
       <c r="M3" t="n">
-        <v>1.450971484313459</v>
+        <v>10.09849399206796</v>
       </c>
       <c r="N3" t="n">
-        <v>1.489374382002836</v>
+        <v>10.3657710790313</v>
       </c>
       <c r="O3" t="n">
-        <v>1.362486586628912</v>
+        <v>9.482655419555314</v>
       </c>
       <c r="P3" t="n">
-        <v>1.09351560470901</v>
+        <v>7.610666979862479</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7309862225975223</v>
+        <v>5.087529325690603</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3555470370770522</v>
+        <v>2.47454182017853</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3394256349377582</v>
+        <v>2.362339833849075</v>
       </c>
       <c r="K4" t="n">
-        <v>0.55778058563772</v>
+        <v>3.882050029136064</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7137671124819467</v>
+        <v>4.967687494248139</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7525673425783421</v>
+        <v>5.237729941501811</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7346729732425472</v>
+        <v>5.113188430394949</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6785894010559681</v>
+        <v>4.722857108999026</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5806504625449316</v>
+        <v>4.041220155526307</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4020122828097845</v>
+        <v>2.797931362939927</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>11.17539134075754</v>
       </c>
       <c r="K5" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L5" t="n">
         <v>20.77863378260766</v>
@@ -34959,7 +34959,7 @@
         <v>14.21896100560221</v>
       </c>
       <c r="R5" t="n">
-        <v>8.271063506783463</v>
+        <v>8.271063506783435</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>7.844982215203144</v>
+        <v>4.663615574899505</v>
       </c>
       <c r="J8" t="n">
-        <v>18.1792047610927</v>
+        <v>11.17539134075754</v>
       </c>
       <c r="K8" t="n">
-        <v>27.24591546419058</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L8" t="n">
-        <v>33.80096738197777</v>
+        <v>20.77863378260766</v>
       </c>
       <c r="M8" t="n">
-        <v>37.61008896161908</v>
+        <v>23.12023369725966</v>
       </c>
       <c r="N8" t="n">
-        <v>38.2186595211555</v>
+        <v>23.49434324994148</v>
       </c>
       <c r="O8" t="n">
-        <v>36.08879643223679</v>
+        <v>22.18504210978145</v>
       </c>
       <c r="P8" t="n">
-        <v>30.80095281109979</v>
+        <v>18.93442017160913</v>
       </c>
       <c r="Q8" t="n">
-        <v>23.13023282398208</v>
+        <v>14.21896100560221</v>
       </c>
       <c r="R8" t="n">
-        <v>13.45468382243024</v>
+        <v>8.271063506783435</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3.945739151067187</v>
+        <v>2.425583501655538</v>
       </c>
       <c r="J9" t="n">
-        <v>10.82740981568641</v>
+        <v>6.655986523460121</v>
       </c>
       <c r="K9" t="n">
-        <v>18.50576793947015</v>
+        <v>11.37614111852891</v>
       </c>
       <c r="L9" t="n">
-        <v>24.88328874822689</v>
+        <v>15.29662563687356</v>
       </c>
       <c r="M9" t="n">
-        <v>29.03762430027405</v>
+        <v>17.85044062301152</v>
       </c>
       <c r="N9" t="n">
-        <v>29.80616381135454</v>
+        <v>18.32288867065883</v>
       </c>
       <c r="O9" t="n">
-        <v>27.26681678062951</v>
+        <v>16.76186346679083</v>
       </c>
       <c r="P9" t="n">
-        <v>21.88402435148575</v>
+        <v>13.45287318408647</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.62889073282287</v>
+        <v>8.992889456329024</v>
       </c>
       <c r="R9" t="n">
-        <v>7.115399162102818</v>
+        <v>4.374084082730676</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>6.792768963249552</v>
+        <v>4.175752044673201</v>
       </c>
       <c r="K10" t="n">
-        <v>11.16260606279147</v>
+        <v>6.862043349739427</v>
       </c>
       <c r="L10" t="n">
-        <v>14.28429260961594</v>
+        <v>8.781052968829309</v>
       </c>
       <c r="M10" t="n">
-        <v>15.06078375122952</v>
+        <v>9.258389161154689</v>
       </c>
       <c r="N10" t="n">
-        <v>14.70267197613216</v>
+        <v>9.038245360419708</v>
       </c>
       <c r="O10" t="n">
-        <v>13.58029726637574</v>
+        <v>8.348282472750284</v>
       </c>
       <c r="P10" t="n">
-        <v>11.620290380233</v>
+        <v>7.143397865800729</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.045286732736486</v>
+        <v>4.945718411146309</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
         <v>117.855135640546</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O13" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35652,7 +35652,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35664,7 +35664,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35883,13 +35883,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -36120,22 +36120,22 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062841</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811311</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36220,10 +36220,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36594,19 +36594,19 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
         <v>316.1166813548411</v>
@@ -36615,7 +36615,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
         <v>117.855135640546</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36691,13 +36691,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -36849,7 +36849,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37074,13 +37074,13 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
@@ -37089,7 +37089,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
         <v>117.855135640546</v>
@@ -37305,16 +37305,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
-        <v>238.658232706284</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37542,7 +37542,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -37551,7 +37551,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
@@ -37560,13 +37560,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37794,10 +37794,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -37870,7 +37870,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766673</v>
@@ -38028,7 +38028,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
         <v>316.1166813548411</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
